--- a/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/BaseOBM/Inclusão VMP/Plano para Tabela VMP.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/BaseOBM/Inclusão VMP/Plano para Tabela VMP.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ipsnt\OneDrive\Área de Trabalho\Inclusão VMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\ips-brasil-documentos\Entregaveis\1.RepositorioSemantico\Terminologias\OBM\BaseOBM\Inclusão VMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9024"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
+    <sheet name="VMP" sheetId="2" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -276,11 +276,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,7 +595,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,11 +606,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -652,7 +652,7 @@
       <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -682,7 +682,7 @@
       <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -693,7 +693,7 @@
       <c r="B9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -704,7 +704,7 @@
       <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -715,7 +715,7 @@
       <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -726,7 +726,7 @@
       <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -769,7 +769,7 @@
       <c r="B17" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -780,7 +780,7 @@
       <c r="B18" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -826,7 +826,7 @@
       <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>50</v>
       </c>
     </row>
